--- a/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,111 +532,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387807212</t>
+          <t>https://openalex.org/W4323266868</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2363MO A phase II study investigating the safety and efficacy of neoadjuvant atezolizumab in non-urothelial, muscle invasive bladder cancer (ABACUS-2)</t>
+          <t>Ink Design Enabling Slot‐Die Coated Perovskite Solar Cells with &amp;gt;22% Power Conversion Efficiency, Micro‐Modules, and 1 Year of Outdoor Performance Evaluation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5082418773", "https://openalex.org/A5073197206", "https://openalex.org/A5019740270", "https://openalex.org/A5003418753", "https://openalex.org/A5091309316", "https://openalex.org/A5022488342", "https://openalex.org/A5031306593", "https://openalex.org/A5083685179", "https://openalex.org/A5029987103", "https://openalex.org/A5044904924", "https://openalex.org/A5058520376", "https://openalex.org/A5076057905", "https://openalex.org/A5048796030", "https://openalex.org/A5078099654", 
-"https://openalex.org/A5041162872", "https://openalex.org/A5035922913", "https://openalex.org/A5044912566", "https://openalex.org/A5017839144", "https://openalex.org/A5007496293", "https://openalex.org/A5064584276"), au_display_name = c("B.E. Szabados", "Elisa Martínez", "Francisco Márquez", "D.E. Castellano Gauna", "Alejo Rodríguez‐Vida", "M.C. Garcias de Espana", "Syed A. Hussain", "Carlos Álvarez Fernández", "Mark Linch", "T. Bonfill Abella", "Marine Gross Goupil", "J. Kelly", "Robert J. Jones", 
-"Simon J. Crabb", "Luis Beltrán", "Rachel Garonce-Hediger", "Nikolas Rakebrandt", "Rareş Georgescu", "Charlotte Ackerman", "T.B. Powles"), au_orcid = c(NA, NA, NA, NA, "https://orcid.org/0000-0002-7304-6857", NA, "https://orcid.org/0000-0003-1552-511X", "https://orcid.org/0000-0002-9070-556X", NA, NA, NA, NA, "https://orcid.org/0000-0003-3543-2877", "https://orcid.org/0000-0003-3521-9064", NA, NA, NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
-NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
+          <t>list(au_id = c("https://openalex.org/A5053434901", "https://openalex.org/A5034813258", "https://openalex.org/A5057785360", "https://openalex.org/A5049422942", "https://openalex.org/A5036997965", "https://openalex.org/A5082692175", "https://openalex.org/A5026584265", "https://openalex.org/A5003166129", "https://openalex.org/A5036578721", "https://openalex.org/A5040082438", "https://openalex.org/A5011004401", "https://openalex.org/A5048718551", "https://openalex.org/A5005214160", "https://openalex.org/A5007426095", 
+"https://openalex.org/A5026326456", "https://openalex.org/A5053013321", "https://openalex.org/A5085099247", "https://openalex.org/A5015983406", "https://openalex.org/A5055489946", "https://openalex.org/A5021979848", "https://openalex.org/A5007716961", "https://openalex.org/A5022828617", "https://openalex.org/A5071649894", "https://openalex.org/A5038483503", "https://openalex.org/A5080790011"), au_display_name = c("Jinzhao Li", "Janardan Dagar", "Oleksandra Shargaieva", "Oliver Maus", "Marco Remec", 
+"Quiterie Emery", "Mark V. Khenkin", "Carolin Ulbrich", "Fatima Akhundova", "J.A. Marquez", "Thomas Unold", "Markus Fenske", "Christof Schultz", "Bert Stegemann", "Amran Al‐Ashouri", "Steve Albrecht", "Alvaro Tejada Esteves", "Lars Korte", "Hans Köbler", "Antonio Abate", "Daniel M. Többens", "Ivo Žižak", "Emil J. W. List‐Kratochvil", "Rutger Schlatmann", "Eva Unger"), au_orcid = c("https://orcid.org/0000-0001-6866-1321", "https://orcid.org/0000-0003-4102-3818", "https://orcid.org/0000-0003-4920-3282", 
+"https://orcid.org/0000-0002-8241-5300", NA, "https://orcid.org/0000-0003-1422-9677", "https://orcid.org/0000-0001-9201-0238", NA, NA, "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-5750-0693", NA, NA, "https://orcid.org/0000-0001-9837-1448", "https://orcid.org/0000-0001-5512-8034", "https://orcid.org/0000-0001-9962-9535", NA, "https://orcid.org/0000-0002-9207-9048", "https://orcid.org/0000-0003-0230-6938", NA, "https://orcid.org/0000-0001-8573-7359", NA, "https://orcid.org/0000-0001-9206-800X", 
+"https://orcid.org/0000-0002-5951-9435", "https://orcid.org/0000-0002-3343-867X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Faculty of Electrical Engineering University of Ljubljana  Tržaška cesta 25 Ljubljana 1000 Slovenia; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Physik &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "University of Applied Sciences – HTW Berlin  Wilhelminenhofstr. 75a D‐12459 Berlin Germany", "University of Applied Sciences – HTW Berlin  Wilhelminenhofstr. 75a D‐12459 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany", "Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany", 
+"Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany"), institution_id = c("https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I122228004", "https://openalex.org/I122228004", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503"), institution_display_name = c("Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "HTW Berlin - University of Applied Sciences", "HTW Berlin - University of Applied Sciences", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie"
+), institution_ror = c("https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/01xzwj424", "https://ror.org/01xzwj424", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", 
+"https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28"), institution_country_code = c("DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE"), institution_type = c("facility", "facility", "facility", "facility", "facility", "facility", 
+"facility", "facility", "facility", "facility", "facility", "facility", "education", "education", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility"), institution_lineage = c("https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I122228004", "https://openalex.org/I122228004", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503"))</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Abstract The next technological step in the exploration of metal‐halide perovskite solar cells is the demonstration of larger‐area device prototypes under outdoor operating conditions. The authors here demonstrate that when slot‐die coating the halide perovskite layers on large areas, ribbing effects may occur but can be prevented by adjusting the precursor ink's rheological properties. For formamidinium lead triiodide (FAPbI 3 ) precursor inks based on 2‐methoxyethanol, the ink viscosity is adjusted by adding acetonitrile (ACN) as a co‐solvent leading to smooth FAPbI 3 thin‐films with high quality and layer homogeneity. For an optimized content of 46 vol% of the ACN co‐solvent, a certified steady‐state performance of 22.3% is achieved in p‐i‐n FAPbI 3 ‐perovskite solar cells. Scaling devices to larger areas by making laser series‐interconnected mini‐modules of 12.7 cm 2 , a power conversion efficiency of 17.1% is demonstrated. A full year of outdoor stability testing with continuous maximum power point tracking on encapsulated devices is performed and it is demonstrated that these devices maintain close to 100% of their initial performance during winter and spring followed by a significant performance decline during warmer summer months. This work highlights the importance of the real‐condition evaluation of larger area device prototypes to validate the technological potential of halide perovskite photovoltaics.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>Advanced Energy Materials</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S41454044</t>
+          <t>https://openalex.org/S2502627819</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0923-7534</t>
+          <t>1614-6832</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
+          <t>https://doi.org/10.1002/aenm.202203898</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://onlinelibrary.wiley.com/doi/pdfdirect/10.1002/aenm.202203898</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>S1201</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>S1202</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>13</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://onlinelibrary.wiley.com/doi/pdfdirect/10.1002/aenm.202203898</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -651,12 +667,12 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>c(funder = "https://openalex.org/F4320325698", funder_display_name = "Helmholtz Association", funder = "https://openalex.org/F4320329025", funder_display_name = "Helmholtz Energy Materials Foundry", award_id = "ZT‐0024")</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -666,17 +682,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4387807212</t>
+          <t>https://api.openalex.org/works?filter=cites:W4323266868</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>c(openalex = "https://openalex.org/W4387807212", doi = "https://doi.org/10.1016/j.annonc.2023.09.1012")</t>
+          <t>c(openalex = "https://openalex.org/W4323266868", doi = "https://doi.org/10.1002/aenm.202203898")</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
+          <t>https://doi.org/10.1002/aenm.202203898</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -686,12 +702,15 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>c("https://openalex.org/W1965464747", "https://openalex.org/W1999567141", "https://openalex.org/W2013307458", "https://openalex.org/W2026957492", "https://openalex.org/W2055084983", "https://openalex.org/W2124916166", "https://openalex.org/W2129970907", "https://openalex.org/W2137753785", "https://openalex.org/W2328622841", "https://openalex.org/W2343134688", "https://openalex.org/W2528431555", "https://openalex.org/W2561154959", "https://openalex.org/W2566563253", "https://openalex.org/W2779178825", 
+"https://openalex.org/W2787174587", "https://openalex.org/W2795560075", "https://openalex.org/W2800294230", "https://openalex.org/W2908855329", "https://openalex.org/W2917066042", "https://openalex.org/W2920846742", "https://openalex.org/W2948981394", "https://openalex.org/W2952213661", "https://openalex.org/W2978073789", "https://openalex.org/W2984398171", "https://openalex.org/W2986852877", "https://openalex.org/W2993477695", "https://openalex.org/W3002058265", "https://openalex.org/W3006040448", 
+"https://openalex.org/W3007099258", "https://openalex.org/W3016719418", "https://openalex.org/W3022885513", "https://openalex.org/W3024844340", "https://openalex.org/W3046744505", "https://openalex.org/W3048622063", "https://openalex.org/W3093644529", "https://openalex.org/W3097870610", "https://openalex.org/W3111413448", "https://openalex.org/W3112882062", "https://openalex.org/W3113214473", "https://openalex.org/W3130317554", "https://openalex.org/W3136518021", "https://openalex.org/W3196046854", 
+"https://openalex.org/W3196741495", "https://openalex.org/W4200394152", "https://openalex.org/W4210508833", "https://openalex.org/W4225807675", "https://openalex.org/W4286515519")</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3012957547", "https://openalex.org/W4302385542", "https://openalex.org/W4319955432", "https://openalex.org/W4288703684", "https://openalex.org/W3090399456", "https://openalex.org/W4234615258", "https://openalex.org/W2895175923", "https://openalex.org/W4248636606", "https://openalex.org/W3024972238", "https://openalex.org/W2890508535")</t>
+          <t>c("https://openalex.org/W2964921278", "https://openalex.org/W2258688785", "https://openalex.org/W2324528558", "https://openalex.org/W3085860626", "https://openalex.org/W4200196718", "https://openalex.org/W4318257494", "https://openalex.org/W2215957462", "https://openalex.org/W2914313935", "https://openalex.org/W4281656528", "https://openalex.org/W4313291320")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -708,18 +727,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327562966</t>
+          <t>https://openalex.org/W4387655061</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630/113. RELEVANCIA DE LAS PRUEBAS COMPLEMENTARIAS ORIENTADAS A LA CLÍNICA DEL PACIENTE EN EL MANEJO INICIAL DEL SÍNCOPE</t>
+          <t>NOMAD: A distributed web-based platform for managing materials science research data</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5028796699", "https://openalex.org/A5019740270", "https://openalex.org/A5004666783"), au_display_name = c("Ángel Martínez Lara", "Francisco Márquez", "Alberto Luis Avilés Toscano"), au_orcid = c(NA, NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, 
-NA, NA), institution_lineage = c(NA, NA, NA))</t>
+          <t>list(au_id = c("https://openalex.org/A5067114196", "https://openalex.org/A5059047868", "https://openalex.org/A5048327804", "https://openalex.org/A5093066936", "https://openalex.org/A5034314404", "https://openalex.org/A5019712384", "https://openalex.org/A5029729586", "https://openalex.org/A5077507829", "https://openalex.org/A5040082438", "https://openalex.org/A5085520614", "https://openalex.org/A5092826341", "https://openalex.org/A5086562271", "https://openalex.org/A5065128348", "https://openalex.org/A5064662733", 
+"https://openalex.org/A5093066935", "https://openalex.org/A5034091167", "https://openalex.org/A5025071074", "https://openalex.org/A5054950620", "https://openalex.org/A5004968551", "https://openalex.org/A5064902040", "https://openalex.org/A5057286743", "https://openalex.org/A5002664162", "https://openalex.org/A5025523923", "https://openalex.org/A5035834074", "https://openalex.org/A5021987405", "https://openalex.org/A5008982079", "https://openalex.org/A5013532979", "https://openalex.org/A5068403289", 
+"https://openalex.org/A5053264793"), au_display_name = c("Markus Scheidgen", "Lauri Himanen", "Alvin Noe Ladines", "David Sikter", "Mohammad Nakhaee", "Ádám Fekete", "Theodore L. Chang", "Amir Golparvar", "J.A. Marquez", "Sándor Brockhauser", "Sebastian Brückner", "Luca M. Ghiringhelli", "Felix Dietrich", "Daniel Lehmberg", "Thea Denell", "Andrea Albino", "Hampus Näsström", "Sherjeel Shabih", "Florian Dobener", "Markus Kühbach", "Rubel Mozumder", "Joseph F. Rudzinski", "Nathan Daelman", "José María Sánchez-Marín Pizarro", 
+"Martiň Kubáň", "Cuauhtemoc Salazar", "Pavel Ondračka", "Hans‐Joachim Bungartz", "Claudia Draxl"), au_orcid = c("https://orcid.org/0000-0002-8038-2277", "https://orcid.org/0000-0002-3130-8193", "https://orcid.org/0000-0003-0077-2097", "https://orcid.org/0000-0002-2102-7160", "https://orcid.org/0000-0003-4146-0129", "https://orcid.org/0000-0002-6263-897X", "https://orcid.org/0000-0002-4911-0230", "https://orcid.org/0000-0002-2412-6615", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-9700-4803", 
+"https://orcid.org/0000-0002-5969-847X", "https://orcid.org/0000-0001-5099-3029", "https://orcid.org/0000-0002-2906-1769", "https://orcid.org/0000-0002-4012-5014", "https://orcid.org/0009-0000-7185-9363", "https://orcid.org/0000-0001-9280-7431", "https://orcid.org/0000-0002-3264-1692", "https://orcid.org/0009-0008-6635-4465", "https://orcid.org/0000-0003-1987-6224", "https://orcid.org/0000-0002-7117-5196", "https://orcid.org/0009-0007-5926-6646", "https://orcid.org/0000-0003-3403-640X", "https://orcid.org/0000-0002-7647-1816", 
+"https://orcid.org/0000-0002-6751-8192", "https://orcid.org/0000-0002-1619-2460", "https://orcid.org/0000-0002-9635-5062", "https://orcid.org/0000-0003-0729-629X", "https://orcid.org/0000-0002-0171-0712", "https://orcid.org/0000-0003-3523-6657"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
+"middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, 
+NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
+NA, NA, NA, NA, NA, NA, NA))</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -729,87 +755,87 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-10-15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>REC: CardioClinics</t>
+          <t>Journal of open source software</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210182158</t>
+          <t>https://openalex.org/S4210214273</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Open Journals</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2605-1532</t>
+          <t>2475-9066</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
+          <t>https://doi.org/10.21105/joss.05388</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://joss.theoj.org/papers/10.21105/joss.05388.pdf</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>5388</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>S32</t>
+          <t>5388</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://joss.theoj.org/papers/10.21105/joss.05388.pdf</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -824,12 +850,12 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -839,17 +865,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4327562966</t>
+          <t>https://api.openalex.org/works?filter=cites:W4387655061</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>c(openalex = "https://openalex.org/W4327562966", doi = "https://doi.org/10.1016/s2605-1532(23)00137-1")</t>
+          <t>c(openalex = "https://openalex.org/W4387655061", doi = "https://doi.org/10.21105/joss.05388")</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
+          <t>https://doi.org/10.21105/joss.05388</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -859,12 +885,13 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>c("https://openalex.org/W1976492731", "https://openalex.org/W1980404382", "https://openalex.org/W1992985800", "https://openalex.org/W2015197254", "https://openalex.org/W2134329894", "https://openalex.org/W2302501749", "https://openalex.org/W2601081289", "https://openalex.org/W2765766406", "https://openalex.org/W2796365074", "https://openalex.org/W2890146303", "https://openalex.org/W3084164197", "https://openalex.org/W3189385021", "https://openalex.org/W4225106311", "https://openalex.org/W4299718943", 
+"https://openalex.org/W4311623819", "https://openalex.org/W4386740911")</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W2899084033", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W2048182022", "https://openalex.org/W2604872355", "https://openalex.org/W3031052312")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W2390279801", "https://openalex.org/W2358668433", "https://openalex.org/W2376932109", "https://openalex.org/W2382290278", "https://openalex.org/W2350741829", "https://openalex.org/W2530322880", "https://openalex.org/W1596801655", "https://openalex.org/W2001405890", "https://openalex.org/W2359140296")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -881,18 +908,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327562978</t>
+          <t>https://openalex.org/W4387807212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630/110. LA RECURRENCIA DEL SÍNCOPE COMO INDICADOR HACIA LA CARDIOGENICIDAD DEL SÍNCOPE</t>
+          <t>2363MO A phase II study investigating the safety and efficacy of neoadjuvant atezolizumab in non-urothelial, muscle invasive bladder cancer (ABACUS-2)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5028796699", "https://openalex.org/A5019740270", "https://openalex.org/A5004666783"), au_display_name = c("Ángel Martínez Lara", "Francisco Márquez", "Alberto Luis Avilés Toscano"), au_orcid = c(NA, NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, 
-NA, NA), institution_lineage = c(NA, NA, NA))</t>
+          <t>list(au_id = c("https://openalex.org/A5082418773", "https://openalex.org/A5073197206", "https://openalex.org/A5019740270", "https://openalex.org/A5003418753", "https://openalex.org/A5091309316", "https://openalex.org/A5022488342", "https://openalex.org/A5031306593", "https://openalex.org/A5083685179", "https://openalex.org/A5029987103", "https://openalex.org/A5044904924", "https://openalex.org/A5058520376", "https://openalex.org/A5076057905", "https://openalex.org/A5048796030", "https://openalex.org/A5078099654", 
+"https://openalex.org/A5041162872", "https://openalex.org/A5035922913", "https://openalex.org/A5044912566", "https://openalex.org/A5017839144", "https://openalex.org/A5007496293", "https://openalex.org/A5064584276"), au_display_name = c("B.E. Szabados", "Elisa Martínez", "Francisco Márquez", "D.E. Castellano Gauna", "Alejo Rodríguez‐Vida", "M.C. Garcias de Espana", "Syed A. Hussain", "Carlos Álvarez Fernández", "Mark Linch", "T. Bonfill Abella", "Marine Gross Goupil", "J. Kelly", "Robert J. Jones", 
+"Simon J. Crabb", "Luis Beltrán", "Rachel Garonce-Hediger", "Nikolas Rakebrandt", "Rareș Georgescu", "Charlotte Ackerman", "T.B. Powles"), au_orcid = c(NA, NA, NA, NA, "https://orcid.org/0000-0002-7304-6857", NA, "https://orcid.org/0000-0003-1552-511X", "https://orcid.org/0000-0002-9070-556X", NA, NA, NA, NA, "https://orcid.org/0000-0003-3543-2877", "https://orcid.org/0000-0003-3521-9064", NA, NA, NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", 
+"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, 
+NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA))</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -902,17 +932,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>REC: CardioClinics</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210182158</t>
+          <t>https://openalex.org/S41454044</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -922,12 +952,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2605-1532</t>
+          <t>0923-7534</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -947,17 +977,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S1201</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>S31</t>
+          <t>S1202</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>34</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -997,12 +1027,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,17 +1042,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4327562978</t>
+          <t>https://api.openalex.org/works?filter=cites:W4387807212</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>c(openalex = "https://openalex.org/W4327562978", doi = "https://doi.org/10.1016/s2605-1532(23)00134-6")</t>
+          <t>c(openalex = "https://openalex.org/W4387807212", doi = "https://doi.org/10.1016/j.annonc.2023.09.1012")</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1032,12 +1062,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W93312527", "https://openalex.org/W2603296253", "https://openalex.org/W1589203209", "https://openalex.org/W2557454913", "https://openalex.org/W828925460", "https://openalex.org/W11365241", "https://openalex.org/W1013667899", "https://openalex.org/W2559405764", "https://openalex.org/W157591366", "https://openalex.org/W2732870254")</t>
+          <t>c("https://openalex.org/W3012957547", "https://openalex.org/W4302385542", "https://openalex.org/W4319955432", "https://openalex.org/W4288703684", "https://openalex.org/W3090399456", "https://openalex.org/W4234615258", "https://openalex.org/W2895175923", "https://openalex.org/W4248636606", "https://openalex.org/W3024972238", "https://openalex.org/W2890508535")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1054,12 +1084,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327563478</t>
+          <t>https://openalex.org/W4327562966</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630/104. LA IMPORTANCIA DEL TRIAJE EN URGENCIAS EN LA ORIENTACIÓN INICIAL DE LA PÉRDIDA TRANSITORIA DEL CONOCIMIENTO</t>
+          <t>630/113. RELEVANCIA DE LAS PRUEBAS COMPLEMENTARIAS ORIENTADAS A LA CLÍNICA DEL PACIENTE EN EL MANEJO INICIAL DEL SÍNCOPE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1100,7 +1130,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1120,12 +1150,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>S30</t>
+          <t>S32</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1170,7 +1200,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1185,17 +1215,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4327563478</t>
+          <t>https://api.openalex.org/works?filter=cites:W4327562966</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>c(openalex = "https://openalex.org/W4327563478", doi = "https://doi.org/10.1016/s2605-1532(23)00129-2")</t>
+          <t>c(openalex = "https://openalex.org/W4327562966", doi = "https://doi.org/10.1016/s2605-1532(23)00137-1")</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1205,12 +1235,12 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W2586801360", "https://openalex.org/W1489783725", "https://openalex.org/W2748952813", "https://openalex.org/W3032375762", "https://openalex.org/W2080531066", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1995515455")</t>
+          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W2899084033", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W2048182022", "https://openalex.org/W2604872355", "https://openalex.org/W3031052312")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1227,108 +1257,108 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382055766</t>
+          <t>https://openalex.org/W4327562978</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>¿Somos predeciblemente racionales o predeciblemente irracionales? Un estudio sobre el “efecto anclaje”</t>
+          <t>630/110. LA RECURRENCIA DEL SÍNCOPE COMO INDICADOR HACIA LA CARDIOGENICIDAD DEL SÍNCOPE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>list(au_id = "https://openalex.org/A5043724609", au_display_name = "José Luis Márquez", au_orcid = "https://orcid.org/0000-0001-9491-7773", author_position = "first", au_affiliation_raw = "Universidad Mayor de San Andrés, Facultad de Ciencias Económicas y Financieras Carrera Administración de Empresas La Paz, Bolivia", institution_id = "https://openalex.org/I122147150", institution_display_name = "Higher University of San Andrés", institution_ror = "https://ror.org/00k4v9x79", institution_country_code = "BO", 
-    institution_type = "education", institution_lineage = "https://openalex.org/I122147150")</t>
+          <t>list(au_id = c("https://openalex.org/A5028796699", "https://openalex.org/A5019740270", "https://openalex.org/A5004666783"), au_display_name = c("Ángel Martínez Lara", "Francisco Márquez", "Alberto Luis Avilés Toscano"), au_orcid = c(NA, NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, 
+NA, NA), institution_lineage = c(NA, NA, NA))</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>El objetivo de este artículo es contrastar el supuesto de racionalidad del consumidor en la valoración de un nuevo producto. Para ello, se realizó un experimento en la ciudad de La Paz (Bolivia), considerando una muestra de 87 consumidores a quienes se pidió indicar el precio de un producto de reciente introducción en el mercado. Se midió el “efecto anclaje” por medio del índice de anclaje propuesto por Kahneman. Se halló que la mayor parte de las valoraciones estuvieron sesgadas por la influencia del “efecto anclaje”, de modo que queda en cuestión el supuesto de racionalidad del consumidor.</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Desafíos Economía y Empresa</t>
+          <t>REC: CardioClinics</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4387281598</t>
+          <t>https://openalex.org/S4210182158</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2955-8050</t>
+          <t>2605-1532</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://revistas.ulima.edu.pe/index.php/ddee/article/download/6052/6299</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>S31</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>58</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>https://revistas.ulima.edu.pe/index.php/ddee/article/download/6052/6299</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1338,12 +1368,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>en</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1358,17 +1388,17 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>https://api.openalex.org/works?filter=cites:W4382055766</t>
+          <t>https://api.openalex.org/works?filter=cites:W4327562978</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>c(openalex = "https://openalex.org/W4382055766", doi = "https://doi.org/10.26439/ddee2023.n003.6052")</t>
+          <t>c(openalex = "https://openalex.org/W4327562978", doi = "https://doi.org/10.1016/s2605-1532(23)00134-6")</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1378,12 +1408,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1589203209", "https://openalex.org/W2557454913", "https://openalex.org/W828925460", "https://openalex.org/W11365241", "https://openalex.org/W1013667899", "https://openalex.org/W2559405764", "https://openalex.org/W157591366", "https://openalex.org/W2748952813", "https://openalex.org/W93312527", "https://openalex.org/W2603296253")</t>
+          <t>c("https://openalex.org/W93312527", "https://openalex.org/W2603296253", "https://openalex.org/W1589203209", "https://openalex.org/W2557454913", "https://openalex.org/W828925460", "https://openalex.org/W11365241", "https://openalex.org/W1013667899", "https://openalex.org/W2559405764", "https://openalex.org/W157591366", "https://openalex.org/W2732870254")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1400,15 +1430,1263 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4327563478</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630/104. LA IMPORTANCIA DEL TRIAJE EN URGENCIAS EN LA ORIENTACIÓN INICIAL DE LA PÉRDIDA TRANSITORIA DEL CONOCIMIENTO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5028796699", "https://openalex.org/A5019740270", "https://openalex.org/A5004666783"), au_display_name = c("Ángel Martínez Lara", "Francisco Márquez", "Alberto Luis Avilés Toscano"), au_orcid = c(NA, NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, 
+NA, NA), institution_lineage = c(NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REC: CardioClinics</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210182158</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2605-1532</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4327563478</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4327563478", doi = "https://doi.org/10.1016/s2605-1532(23)00129-2")</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W2586801360", "https://openalex.org/W1489783725", "https://openalex.org/W2748952813", "https://openalex.org/W3032375762", "https://openalex.org/W2080531066", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1995515455")</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4361015169</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Modelling tools to integrate solar photovoltaics into energy systems</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5007299136", "https://openalex.org/A5053434901", "https://openalex.org/A5006218008", "https://openalex.org/A5084365184", "https://openalex.org/A5080256392", "https://openalex.org/A5036578721", "https://openalex.org/A5040082438", "https://openalex.org/A5000553567", "https://openalex.org/A5057785360", "https://openalex.org/A5072202571", "https://openalex.org/A5082537643", "https://openalex.org/A5034813258", "https://openalex.org/A5014121427", "https://openalex.org/A5011028513", 
+"https://openalex.org/A5051607017", "https://openalex.org/A5080790011", "https://openalex.org/A5015983406", "https://openalex.org/A5053013321", "https://openalex.org/A5021558940"), au_display_name = c("Ke Xu", "Jinzhao Li", "Zih-Wei Peng", "Eike Köhnen", "Hannes Hempel", "Fatima Akhundova", "J.A. Marquez", "Philipp Tockhorn", "Oleksandra Shargaieva", "Amran Al-Ashouri", "Jiahuan Zhang", "Janardan Dagar", "Bernd Stannowski", "Thomas Unold", "Daniel Abou‐Ras", "Eva Unger", "Lars Korte", "Steve Albrecht", 
+"Florian Ruske"), au_orcid = c("https://orcid.org/0000-0002-1113-1095", "https://orcid.org/0000-0001-6866-1321", NA, "https://orcid.org/0000-0002-3637-4907", "https://orcid.org/0000-0001-9689-9644", NA, "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0003-1361-2252", "https://orcid.org/0000-0003-4920-3282", NA, "https://orcid.org/0000-0003-3030-0402", "https://orcid.org/0000-0003-4102-3818", "https://orcid.org/0000-0003-0130-3954", NA, "https://orcid.org/0000-0003-3063-922X", "https://orcid.org/0000-0002-3343-867X", 
+"https://orcid.org/0000-0002-9207-9048", "https://orcid.org/0000-0001-9962-9535", "https://orcid.org/0000-0002-6363-4591"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin, Competence Centre Photovoltaics (PVcomB)", 
+"Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin, Competence Centre Photovoltaics (PVcomB)", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie", "Helmholtz Zentrum Berlin für Materialien und Energie"), institution_id = c("https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503", 
+"https://openalex.org/I2800795503", "https://openalex.org/I2800795503", "https://openalex.org/I2800795503"), institution_display_name = c("Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", 
+"Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie", "Helmholtz-Zentrum Berlin für Materialien und Energie"), institution_ror = c("https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", 
+"https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28", "https://ror.org/02aj13c28"), institution_country_code = c("DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE"), institution_type = c("facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", 
+"facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility", "facility"), institution_lineage = c("https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", 
+"https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503", "https://openalex.org/I1305996414, https://openalex.org/I2800795503"))</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4361015169</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4361015169", doi = "https://doi.org/10.29363/nanoge.matsus.2023.230")</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W423694295", "https://openalex.org/W4285018765", "https://openalex.org/W4310584159", "https://openalex.org/W2084537801", "https://openalex.org/W2013054419", "https://openalex.org/W2740431185", "https://openalex.org/W2111287004", "https://openalex.org/W394760994", "https://openalex.org/W2386968573", "https://openalex.org/W2395064349")</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4382055766</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>¿Somos predeciblemente racionales o predeciblemente irracionales? Un estudio sobre el “efecto anclaje”</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>list(au_id = "https://openalex.org/A5043724609", au_display_name = "José Luis Márquez", au_orcid = "https://orcid.org/0000-0001-9491-7773", author_position = "first", au_affiliation_raw = "Universidad Mayor de San Andrés, Facultad de Ciencias Económicas y Financieras Carrera Administración de Empresas La Paz, Bolivia", institution_id = "https://openalex.org/I122147150", institution_display_name = "Higher University of San Andrés", institution_ror = "https://ror.org/00k4v9x79", institution_country_code = "BO", 
+    institution_type = "education", institution_lineage = "https://openalex.org/I122147150")</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>El objetivo de este artículo es contrastar el supuesto de racionalidad del consumidor en la valoración de un nuevo producto. Para ello, se realizó un experimento en la ciudad de La Paz (Bolivia), considerando una muestra de 87 consumidores a quienes se pidió indicar el precio de un producto de reciente introducción en el mercado. Se midió el “efecto anclaje” por medio del índice de anclaje propuesto por Kahneman. Se halló que la mayor parte de las valoraciones estuvieron sesgadas por la influencia del “efecto anclaje”, de modo que queda en cuestión el supuesto de racionalidad del consumidor.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Desafíos Economía y Empresa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4387281598</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2955-8050</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://revistas.ulima.edu.pe/index.php/ddee/article/download/6052/6299</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>https://revistas.ulima.edu.pe/index.php/ddee/article/download/6052/6299</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4382055766</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4382055766", doi = "https://doi.org/10.26439/ddee2023.n003.6052")</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1589203209", "https://openalex.org/W2557454913", "https://openalex.org/W828925460", "https://openalex.org/W11365241", "https://openalex.org/W1013667899", "https://openalex.org/W2559405764", "https://openalex.org/W157591366", "https://openalex.org/W2748952813", "https://openalex.org/W93312527", "https://openalex.org/W2603296253")</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4382201946</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Exploiting Supramolecular Synthons in Cocrystals of Two Racetams with 4-Hydroxybenzoic Acid and 4-Hydroxybenzamide Coformers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5040082438", "https://openalex.org/A5072493657", "https://openalex.org/A5029525313", "https://openalex.org/A5056633634", "https://openalex.org/A5024898595", "https://openalex.org/A5056223596", "https://openalex.org/A5022996695"), au_display_name = c("J.A. Marquez", "Е. А. Новиков", "Sergei Rigin", "Marina S. Fonarı", "Raúl Castañeda", "T. A. Kornilova", "Tatiana V. Timofeeva"), au_orcid = c("https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-0944-5394", 
+"https://orcid.org/0000-0003-4805-8060", "https://orcid.org/0000-0002-2508-5368", NA, NA, "https://orcid.org/0000-0001-7475-3206"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA", "Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA", "Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Materials Science and Engineering, North Carolina State University, Raleigh, NC 27606, USA", 
+"Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Institute of Applied Physics, Moldova State University, Academiei Str. 5, MD2028 Chisinau, Moldova", "Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA", "Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA", "Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA"), institution_id = c("https://openalex.org/I59749544", "https://openalex.org/I59749544", 
+"https://openalex.org/I59749544", "https://openalex.org/I29920723", "https://openalex.org/I59749544", "https://openalex.org/I59749544", "https://openalex.org/I59749544"), institution_display_name = c("New Mexico Highlands University", "New Mexico Highlands University", "New Mexico Highlands University", "Moldova State University", "New Mexico Highlands University", "New Mexico Highlands University", "New Mexico Highlands University"), institution_ror = c("https://ror.org/016tyxe19", "https://ror.org/016tyxe19", 
+"https://ror.org/016tyxe19", "https://ror.org/0475kvb92", "https://ror.org/016tyxe19", "https://ror.org/016tyxe19", "https://ror.org/016tyxe19"), institution_country_code = c("US", "US", "US", "MD", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I59749544", "https://openalex.org/I59749544", "https://openalex.org/I59749544", "https://openalex.org/I29920723", "https://openalex.org/I59749544", 
+"https://openalex.org/I59749544", "https://openalex.org/I59749544"))</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Structures of three cocrystals of nootropic racetams were studied. They included two cocrystals of phenylpiracetam (PPA) with 4-hydroxybenzoic acid (HBA) with different stoichiometries, PPA·HBA and PPA·2HBA, and cocrystal of 2-(4-phenyl-2-oxopyrrolidin-1-yl)-N’-isopropylideneacetohydrazide (PPAH) with 4-hydroxybenzamide (HBD), PPAH·HBD·(acetone solvate). X-ray study of the pure forms of PPA and PPAH was also carried out to identify variations of molecular synthons under the influence of conformers. The cocrystal structures revealed the diversity of supramolecular synthons namely, amide-amide, amide-acid, acid-acid, and hydroxyl-hydroxyl; however, very similar molecular chains were found in PPA and PPA·2HBA, and similar molecular dimers in PPAH and PPAH·HBD. In addition, conformational molecular diversity was observed as disorder in PPA·2HBA as it was observed earlier for rac-PPA that allows for the consideration that cocrystal as an example of partial solid solution. Quantum chemical calculations of PPA and PPAH conformers demonstrated that for most conformers, energy differences do not exceed 2 kcal/mol that suggests the influence of packing conditions (in this case R- and S-enantiomers intend to occupy the same molecular position in crystal) on molecular conformation.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210231268</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Multidisciplinary Digital Publishing Institute</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2624-8549</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/chemistry5020074</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.mdpi.com/2624-8549/5/2/74/pdf?version=1683539669</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>https://www.mdpi.com/2624-8549/5/2/74/pdf?version=1683539669</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4382201946</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4382201946", doi = "https://doi.org/10.3390/chemistry5020074")</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/chemistry5020074</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1488512761", "https://openalex.org/W1963944294", "https://openalex.org/W1965197146", "https://openalex.org/W1979368277", "https://openalex.org/W1981356530", "https://openalex.org/W1990437209", "https://openalex.org/W2013050241", "https://openalex.org/W2015225761", "https://openalex.org/W2021558110", "https://openalex.org/W2021720051", "https://openalex.org/W2024175762", "https://openalex.org/W2053753118", "https://openalex.org/W2057651883", "https://openalex.org/W2059205366", 
+"https://openalex.org/W2062949968", "https://openalex.org/W2075035035", "https://openalex.org/W2085502216", "https://openalex.org/W2086973672", "https://openalex.org/W2131350133", "https://openalex.org/W2317560771", "https://openalex.org/W2319902168", "https://openalex.org/W2503715389", "https://openalex.org/W2583294600", "https://openalex.org/W2770351578", "https://openalex.org/W2802043492", "https://openalex.org/W2901792485", "https://openalex.org/W2996472832", "https://openalex.org/W3035019585", 
+"https://openalex.org/W3041504843", "https://openalex.org/W3172791077", "https://openalex.org/W3201634288", "https://openalex.org/W4212826938", "https://openalex.org/W4229080214", "https://openalex.org/W4281730893", "https://openalex.org/W4283579001", "https://openalex.org/W4287889581")</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2018679420", "https://openalex.org/W2274650606", "https://openalex.org/W4246932823", "https://openalex.org/W1992187738", "https://openalex.org/W1554398230", "https://openalex.org/W1987837747", "https://openalex.org/W2735754348", "https://openalex.org/W788561195", "https://openalex.org/W2015358666", "https://openalex.org/W2802904616")</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4385192455</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A −20°C~+107°C 52mk-NETD Reference-cell-free 15-bits ROIC for 80×60 Micro-bolometer Thermal Imager</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5076265557", "https://openalex.org/A5040082438", "https://openalex.org/A5052910427"), au_display_name = c("Hongbin Yu", "J.A. Marquez", "Chih-Cheng Hsieh"), au_orcid = c("https://orcid.org/0000-0003-4706-1575", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0003-4070-5059"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("National Tsing Hua University, Hsinchu, Taiwan", "National Tsing Hua University, Hsinchu, Taiwan", 
+"National Tsing Hua University, Hsinchu, Taiwan"), institution_id = c("https://openalex.org/I25846049", "https://openalex.org/I25846049", "https://openalex.org/I25846049"), institution_display_name = c("National Tsing Hua University", "National Tsing Hua University", "National Tsing Hua University"), institution_ror = c("https://ror.org/00zdnkx70", "https://ror.org/00zdnkx70", "https://ror.org/00zdnkx70"), institution_country_code = c("TW", "TW", "TW"), institution_type = c("education", "education", 
+"education"), institution_lineage = c("https://openalex.org/I25846049, https://openalex.org/I2802348453", "https://openalex.org/I25846049, https://openalex.org/I2802348453", "https://openalex.org/I25846049, https://openalex.org/I2802348453"))</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A 52mk NETD reference-cell-free wide-temperature-sensing-range readout IC (ROIC) for micro-bolometer with 15-bits hybrid ADC consisting of the current-mode folding integration (CMFI) and single-slope (SS) operations is realized. The proposed CMFI-SS operation effectively extends conversion range and successfully covers all the circuits PVT variation while provides great temperature sensing range. The prototype achieves a temperature sensing range of −20°C~+107°C while considering the +-15% chip-to-chip and +-3% cell-to-cell pixel variations with an INL/DNL of +-0.12°C/+-0.04°C.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-06-11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4385192455</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4385192455", doi = "https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249")</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2601922992", "https://openalex.org/W1643226533", "https://openalex.org/W2388133705", "https://openalex.org/W2059259843", "https://openalex.org/W2051883869", "https://openalex.org/W1492550349", "https://openalex.org/W2507300456", "https://openalex.org/W1565523774", "https://openalex.org/W1971437276", "https://openalex.org/W2058686180")</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4386544203</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FAIR Research Data With NOMAD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5067114196", "https://openalex.org/A5092826341", "https://openalex.org/A5085520614", "https://openalex.org/A5086562271", "https://openalex.org/A5065128348", "https://openalex.org/A5082162432", "https://openalex.org/A5040082438", "https://openalex.org/A5066696423", "https://openalex.org/A5031956896", "https://openalex.org/A5074073454", "https://openalex.org/A5080780354", "https://openalex.org/A5053264793"), au_display_name = c("Markus Scheidgen", "Sebastian Brückner", 
+"Sándor Brockhauser", "Luca M. Ghiringhelli", "Felix Dietrich", "Ahmed E. Mansour", "J.A. Marquez", "M. Albrecht", "Heiko B. Weber", "Silvana Botti", "Martin Aeschlimann", "Claudia Draxl"), au_orcid = c("https://orcid.org/0000-0002-8038-2277", "https://orcid.org/0000-0002-5969-847X", "https://orcid.org/0000-0002-9700-4803", "https://orcid.org/0000-0001-5099-3029", "https://orcid.org/0000-0002-2906-1769", "https://orcid.org/0000-0002-3411-6808", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0003-1835-052X", 
+"https://orcid.org/0000-0002-6403-9022", "https://orcid.org/0000-0002-4920-2370", "https://orcid.org/0000-0003-3413-5029", "https://orcid.org/0000-0003-3523-6657"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Technical University of Munich", "Humboldt-Universität zu Berlin", 
+"Humboldt-Universität zu Berlin", "Leibniz Institute for Crystal Growth", "University of Erlangen-Nuremberg", "Ruhr University Bochum", "Rheinland-Pfälzische Technische Universität Kaiserslautern-Landau", "Humboldt-Universität zu Berlin"), institution_id = c("https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I62916508", "https://openalex.org/I39343248", "https://openalex.org/I39343248", 
+"https://openalex.org/I858866802", "https://openalex.org/I181369854", "https://openalex.org/I904495901", "https://openalex.org/I153267046", "https://openalex.org/I39343248"), institution_display_name = c("Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Technical University of Munich", "Humboldt-Universität zu Berlin", "Humboldt-Universität zu Berlin", "Leibniz Institute for Crystal Growth", "Friedrich-Alexander-Universität Erlangen-Nürnberg", 
+"Ruhr University Bochum", "University of Kaiserslautern", "Humboldt-Universität zu Berlin"), institution_ror = c("https://ror.org/01hcx6992", "https://ror.org/01hcx6992", "https://ror.org/01hcx6992", "https://ror.org/01hcx6992", "https://ror.org/02kkvpp62", "https://ror.org/01hcx6992", "https://ror.org/01hcx6992", "https://ror.org/037p86664", "https://ror.org/00f7hpc57", "https://ror.org/04tsk2644", "https://ror.org/04zrf7b53", "https://ror.org/01hcx6992"), institution_country_code = c("DE", "DE", 
+"DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE", "DE"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "facility", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I62916508", "https://openalex.org/I39343248", "https://openalex.org/I39343248", "https://openalex.org/I315704651, https://openalex.org/I858866802", 
+"https://openalex.org/I181369854", "https://openalex.org/I904495901", "https://openalex.org/I153267046", "https://openalex.org/I39343248"))</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Scientific research is becoming increasingly data centric, which requires more effort to manage, share, and publish data.NOMAD is a web-based platform that provides research data management (RDM) for materials-science data. In addition to core RDM functions like uploading and sharing files, NOMAD automatically extracts structured data from supported file formats, normalizes, and converts data from these formats. NOMAD provides an extendable framework for managing not just files, but structured machine-actionable harmonized and inter-operable data. This is the basis for a faceted search with domain-specific filters, a comprehensive API, structured data entry via customizable ELNs, integrated data-analysis and machine-learning tools. NOMAD is run as a free public service and can additionally be operated by research institutes. Connecting NOMAD installations through the public services will allow a federated data infrastructure to share data between research institutes and further harmonize RDM within a large research domain such as materials science.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Proceedings of the Conference on Research Data Infrastructure</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4387292475</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2941-296X</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52825/cordi.v1i.376</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.tib-op.org/ojs/index.php/CoRDI/article/download/376/493</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>https://www.tib-op.org/ojs/index.php/CoRDI/article/download/376/493</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>c(funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "460197019", funder = "https://openalex.org/F4320332999", funder_display_name = "Horizon 2020 Framework Programme", award_id = "676580", funder = "https://openalex.org/F4320332999", funder_display_name = "Horizon 2020 Framework Programme", award_id = "951786")</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4386544203</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4386544203", doi = "https://doi.org/10.52825/cordi.v1i.376")</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52825/cordi.v1i.376</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1976492731", "https://openalex.org/W1980404382", "https://openalex.org/W1992985800", "https://openalex.org/W2015197254", "https://openalex.org/W2134329894", "https://openalex.org/W2302501749", "https://openalex.org/W2601081289", "https://openalex.org/W2765766406", "https://openalex.org/W2890146303", "https://openalex.org/W3103403164", "https://openalex.org/W3189385021", "https://openalex.org/W4200394152", "https://openalex.org/W4225106311", "https://openalex.org/W4311623819"
+)</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W4317641895", "https://openalex.org/W3009328996", "https://openalex.org/W2899583470", "https://openalex.org/W2888814832", "https://openalex.org/W2613784600", "https://openalex.org/W1504819070", "https://openalex.org/W3127936763", "https://openalex.org/W2998390796", "https://openalex.org/W2029188294", "https://openalex.org/W4246157392")</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4387458447</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Developing a Global Approach for Measurement of Adolescent Well-Being</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5008578765", "https://openalex.org/A5031687920", "https://openalex.org/A5083322061", "https://openalex.org/A5069010666", "https://openalex.org/A5009813408", "https://openalex.org/A5052911861", "https://openalex.org/A5071436476", "https://openalex.org/A5090890331", "https://openalex.org/A5031983068", "https://openalex.org/A5004507495", "https://openalex.org/A5019517872", "https://openalex.org/A5001424012", "https://openalex.org/A5074281450", "https://openalex.org/A5040082438", 
+"https://openalex.org/A5012622683", "https://openalex.org/A5060734086", "https://openalex.org/A5008241439", "https://openalex.org/A5016731642", "https://openalex.org/A5088655455"), au_display_name = c("Regina Guthold", "Holly Newby", "Sarah C. Keogh", "Rima Afifi", "Karen Austrian", "Sarah Baird", "Robert W. Blum", "Donald Bundy", "Julianna Deardorff", "Danielle Engel", "Jonathan D. Klein", "Sophie M. Kostelecky", "Constance Mackworth-Young", "J.A. Marquez", "Saoirse Nic Gabhainn", "Jennifer Requejo", 
+"D. A. Ross", "Elizabeth Saewyc", "Anshu Mohan"), au_orcid = c("https://orcid.org/0000-0003-3073-6468", NA, NA, NA, "https://orcid.org/0000-0001-5464-7908", "https://orcid.org/0000-0001-5363-8559", NA, "https://orcid.org/0000-0003-2470-6131", "https://orcid.org/0000-0002-4708-5289", NA, "https://orcid.org/0009-0005-1041-6477", NA, "https://orcid.org/0000-0002-9725-7931", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-5717-076X", NA, "https://orcid.org/0000-0001-6353-6951", 
+NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland", "Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland", "Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland", 
+"College of Public Health, University of Iowa, Iowa City, Iowa", "GIRL Center, Population Council, Nairobi, Kenya", "Department of Global Health, George Washington University, Washington, District of Columbia", "Department of Population, Family and Reproductive Health, Bloomberg School of Public Health, Johns Hopkins University, Baltimore, Maryland", "Research Consortium for School Health and Nutrition, London School of Hygiene and Tropical Medicine, London, United Kingdom", "School of Public Health, University of California, Berkeley, California", 
+"Technical Division, United Nations Population Fund, New York, New York", "Department of Pediatrics, University of Illinois at Chicago, Chicago, Illinois", "Partnership for Maternal, Newborn and Child Health, Geneva, Switzerland", "Department of Global Health and Development, London School of Hygiene and Tropical Medicine, London, United Kingdom; The Health Research Unit Zimbabwe, The Biomedical Research and Training Institute, Harare, Zimbabwe", "Manchester Institute of Education, University of Manchester, Manchester, United Kingdom; Wellbeing Research Oxford, Harris Manchester College, University of Oxford, Oxford, United Kingdom", 
+"School of Health Sciences, University of Galway, Galway, Ireland", "Department of International Health, Johns Hopkins Bloomberg School of Public Health, Balitmore, Maryland; Global Financing Facility, World Bank Group, Washington, D.C.", "Consultant to the Child Health Initiative of the FIA Foundation, Bad Herrenalb, Germany", "School of Nursing and Stigma and Resilience Among Vulnerable Youth Centre (SARAVYC), University of British Columbia, Vancouver, British Columbia, Canada", "Partnership for Maternal, Newborn and Child Health, Geneva, Switzerland"
+), institution_id = c("https://openalex.org/I4210105654", "https://openalex.org/I4210105654", "https://openalex.org/I4210105654", "https://openalex.org/I126307644", "https://openalex.org/I4210142731", "https://openalex.org/I193531525", "https://openalex.org/I145311948", "https://openalex.org/I4210089966", "https://openalex.org/I95457486", "https://openalex.org/I78934096", "https://openalex.org/I39422238", NA, "https://openalex.org/I4210099665", "https://openalex.org/I28407311", "https://openalex.org/I188760350", 
+"https://openalex.org/I55633929", NA, "https://openalex.org/I141945490", NA), institution_display_name = c("World Health Organization", "World Health Organization", "World Health Organization", "University of Iowa", "British Council", "George Washington University", "Johns Hopkins University", "London School of Hygiene &amp; Tropical Medicine", "University of California, Berkeley", "United Nations Population Fund", "University of Illinois at Chicago", NA, "Biomedical Research and Training Institute", 
+"University of Manchester", "Ollscoil na Gaillimhe – University of Galway", "World Bank Group", NA, "University of British Columbia", NA), institution_ror = c("https://ror.org/01f80g185", "https://ror.org/01f80g185", "https://ror.org/01f80g185", "https://ror.org/036jqmy94", "https://ror.org/0410jfe71", "https://ror.org/00y4zzh67", "https://ror.org/00za53h95", "https://ror.org/00a0jsq62", "https://ror.org/01an7q238", "https://ror.org/058qtt435", "https://ror.org/02mpq6x41", NA, "https://ror.org/0130vhy65", 
+"https://ror.org/027m9bs27", "https://ror.org/03bea9k73", "https://ror.org/02md09461", NA, "https://ror.org/03rmrcq20", NA), institution_country_code = c("CH", "CH", "CH", "US", "KE", "US", "US", "GB", "US", "US", "US", NA, "ZW", "GB", "IE", "US", NA, "CA", NA), institution_type = c("government", "government", "government", "education", "nonprofit", "education", "education", "education", "education", "government", "education", NA, "healthcare", "education", "education", "other", NA, "education", 
+NA), institution_lineage = c("https://openalex.org/I4210105654", "https://openalex.org/I4210105654", "https://openalex.org/I4210105654", "https://openalex.org/I126307644", "https://openalex.org/I4210142731", "https://openalex.org/I193531525", "https://openalex.org/I145311948", "https://openalex.org/I124357947, https://openalex.org/I4210089966", "https://openalex.org/I2803209242, https://openalex.org/I95457486", "https://openalex.org/I1286959531, https://openalex.org/I78934096", "https://openalex.org/I2801919071, https://openalex.org/I39422238", 
+NA, "https://openalex.org/I4210099665", "https://openalex.org/I28407311", "https://openalex.org/I181231927, https://openalex.org/I188760350", "https://openalex.org/I55633929", NA, "https://openalex.org/I141945490", NA))</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Recognizing the multiple and intergenerational benefits of investing in adolescent well-being, a Call to Action for Adolescent Well-being was launched in 2020 and endorsed by an unprecedented coalition of governments, UN agencies, nongovernmental organizations, and academic institutions. Signatories to the Call committed to engage adolescents in all legal, policy, and program processes that affect them; develop multisectoral, whole-of-government policy approaches that address adolescent well-being; and strengthen political commitment and funding for adolescents. To further support these efforts, the 1.8 Billion Young People for Change Campaign was launched in 2022 [ [1] The Partnership for Maternal, Newborn and Child Health1.8 billion young People for Change Campaign and the Global Forum for Adolescents. https://pmnch.who.int/news-and-events/campaigns/1-8-billionDate accessed: May 26, 2023 Google Scholar ].</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Journal of Adolescent Health</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S101177023</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Elsevier BV</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1054-139X</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>cc-by-nc-nd</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>c(funder = "https://openalex.org/F4320326958", funder_display_name = "Fondation Botnar")</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4387458447</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4387458447", doi = "https://doi.org/10.1016/j.jadohealth.2023.08.029", pmid = "https://pubmed.ncbi.nlm.nih.gov/37815774")</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3003974880", "https://openalex.org/W3048461265", "https://openalex.org/W3156476634", "https://openalex.org/W4283713286", "https://openalex.org/W4307773835")</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3158924236", "https://openalex.org/W3034691975", "https://openalex.org/W2739852106", "https://openalex.org/W2144021851", "https://openalex.org/W585428044", "https://openalex.org/W2578322776", "https://openalex.org/W3092603343", "https://openalex.org/W2378276451", "https://openalex.org/W1986755814", "https://openalex.org/W2507403529")</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389232301</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Assessing the Risk of Venous Thromboembolism and Bleeding Among Patients with Myeloproliferative Neoplasms Undergoing Total Knee and Hip Arthroplasty</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5043724609", "https://openalex.org/A5082579481", "https://openalex.org/A5007341838", "https://openalex.org/A5046522402", "https://openalex.org/A5028221234", "https://openalex.org/A5026792716"), au_display_name = c("José Luis Márquez", "Samantha Simon", "Jeffrey I. Zwicker", "Brian Hollenbeck", "Robert Flaumenhaft", "Rushad Patell"), au_orcid = c("https://orcid.org/0000-0001-9491-7773", NA, NA, "https://orcid.org/0000-0003-2946-9278", NA, "https://orcid.org/0000-0002-8426-3398"
 ), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("1The Warren Alpert Medical School of Brown University, Providence, RI", "2New England Baptist Hospital, Boston", "3Memorial Sloan Kettering Cancer Center, New York, NY", "2New England Baptist Hospital, Boston", "4Division of Hemostasis and Thrombosis, Beth Israel Deaconess Medical Center, Boston, MA", "5Division of Hematology and Hematologic Malignancies, Beth Israel Deaconess Medical Center, Boston, MA"
@@ -1417,330 +2695,680 @@
 "https://openalex.org/I1316535847"))</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Background: Myeloproliferative neoplasms (MPNs) are clonal hematopoietic disorders associated with elevated thrombotic and bleeding risk. Contemporary care has led to comparable lifespans between patients with MPNs and the general population; thus, surgical procedures for degenerative arthritis including total hip arthroplasty (THA) and total knee arthroplasty (TKA) are becoming more common among patients with MPNs. Lower extremity arthroplasty carries considerable thrombotic risk in the general population but estimates for the thrombotic and bleeding complications in patients with MPNs are lacking. Methods: We performed a population-based, propensity-matched retrospective cohort study utilizing data from a MarketScan database to compare 30-day rates of postoperative venous thromboembolism (VTE) and bleeding in THA/TKA patients with MPNs. We included patients undergoing primary THA/TKA with continuous insurance enrollment 3 months prior to surgery. We identified patients with MPNs utilizing ICD-10 codes. Validated algorithms of claims codes were used to label comorbidities including obesity, chronic kidney disease, cancer, inherited thrombophilias, antiphospholipid antibody, or lupus anticoagulant. Primary outcomes included cumulative incidence rates of postoperative VTE and bleeding at 30 days. Logistic regression was utilized to assess for an association between MPN diagnosis and outcomes in the overall cohort, presented as an odds ratio (OR) with a 95% confidence interval (CI). Propensity score matching was utilized to match each patient with MPNs to controls (1:3) using a scoring algorithm calculated based on age, sex, comorbidities (including prior VTE, obesity, cancer, chronic kidney disease, THA/TKA, length of stay, inherited thrombophilias, antiphospholipid antibody, or lupus anticoagulant) and thromboprophylactic medication. We further utilized a logistic regression analysis to identify factors independently associated with 30-day VTE and bleeding in patients with MPN undergoing THA/TKA. Results: Of a total of 131,566 eligible patients, 598 (0.4%) patients with MPNs with a median age of 61 years (IQR 56-66), 65% women, and 60% TKA were included. The majority had essential thrombocythemia (72%), and polycythemia vera (21%). Comorbid conditions included obesity (30%), chronic kidney disease (9%), cancer (8%), and prior VTE (6%). There were 20 thrombotic events within 30 days after arthroplasty among patients with MPNs including 16 deep vein thrombosis and 4 pulmonary embolism events. After adjusting for age, gender, type of surgery, comorbidities, length of stay, and thromboprophylaxis, a MPN diagnosis was not associated with 30-day VTE (OR 1.3, 95% CI 0.8-2.1, P=0.2) or bleeding (OR 1.2, 95% CI 0.8-1.8, P=0.4). The postsurgical cumulative incidence rates of VTE in patients with MPNs (3.37%, 95% CI 2.63-4.11) did not significantly differ in the propensity-matched comparison group of 1,763 patients without MPNs (2.4%, 95% CI 2.1-2.8), (OR 1.4, 95% CI 0.8-2.5 P=0.2) (Figure 1). There was no significant difference in the postsurgical rates of bleeding in patients with MPNs (3.9%, 95% CI 3.1-4.7) compared to patients without MPNs (3.1%, 95% CI 2.7-3.5), (OR 1.3, 0.8-2.2 P=0.2). History of VTE was the only independent risk factor associated with postoperative VTE at 30 days (OR 12.42, 95% CI 4.4-35.3) (Figure 2). Factors associated with bleeding included polycythemia vera (OR 4.29, 95% CI 1.6-11.6), obesity (OR 0.13, 95% CI 0.03-0.6, P=0.01), and prior history of VTE (OR 4.7, 95% CI 1.4-16.2) (Figure 2). Conclusion: In this large claims-based database, patients with MPNs undergoing TKA and THA did not have significantly higher rates of postoperative VTE or bleeding. Among patients with MPNs undergoing lower extremity arthroplasty, prior history of VTE was the only factor significantly associated with postsurgical thrombosis. Specific MPN subtypes were not associated with a differential thrombotic risk but did impact post-operative bleeding. Characterization of these outcomes could lead to a better assessment of the surgical risk factors affecting this population and eventually aid clinicians in optimizing thromboprophylaxis for this high-risk group.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://openalex.org/S200071133</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>0006-4971</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-181879</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Supplement 1</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-181879</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4389232301</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4389232301", doi = "https://doi.org/10.1182/blood-2023-181879")</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2023-181879</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2376859318", "https://openalex.org/W2097468114", "https://openalex.org/W4384821746", "https://openalex.org/W3035878350", "https://openalex.org/W3214406228", "https://openalex.org/W2161939736", "https://openalex.org/W2123269384", "https://openalex.org/W3092459053", "https://openalex.org/W2960976512", "https://openalex.org/W3196309484")</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389327858</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>THE GOOD, THE BAD, AND THE HYPOXIC: INVESTIGATING THE RESPONSE OF INARTICULATE BRACHIOPODS TO LOW-OXYGEN CONDITIONS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5070801237", "https://openalex.org/A5040082438", "https://openalex.org/A5017871082", "https://openalex.org/A5061005201", "https://openalex.org/A5015405639"), au_display_name = c("Kemi Ashing-Giwa", "J.A. Marquez", "Kyra N. Anderson", "Jonathan L. Payne", "Erik A. Sperling"), au_orcid = c(NA, "https://orcid.org/0000-0002-8173-2566", NA, "https://orcid.org/0000-0002-9601-3310", "https://orcid.org/0000-0001-9590-371X"), author_position = c("first", "middle", "middle", 
+"middle", "last"), au_affiliation_raw = c("", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA, NA))</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Abstracts with programs</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4220651000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Geological Society of America</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0016-7592</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-390859</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4389327858</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4389327858", doi = "https://doi.org/10.1130/abs/2023am-390859")</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-390859</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W2390279801", "https://openalex.org/W2358668433", "https://openalex.org/W2376932109", "https://openalex.org/W2001405890", "https://openalex.org/W2382290278", "https://openalex.org/W2350741829", "https://openalex.org/W2130043461", "https://openalex.org/W2530322880")</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389358395</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>COMPARING THE HYPOXIA TOLERANCE AND TEMPERATURE SENSITIVITIES OF PALEOZOIC AND MODERN MARINE FAUNA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5040082438", "https://openalex.org/A5002558942", "https://openalex.org/A5017871082", "https://openalex.org/A5005639881", "https://openalex.org/A5020551911", "https://openalex.org/A5089314789", "https://openalex.org/A5012795191", "https://openalex.org/A5070801237", "https://openalex.org/A5060759702", "https://openalex.org/A5015405639"), au_display_name = c("J.A. Marquez", "Justin L. Penn", "Kyra N. Anderson", "Murray I. Duncan", "Richard Stockey", "Christopher P. Noll", 
+"Thomas H. Boag", "Kemi Ashing-Giwa", "Curtis Deutsch", "Erik A. Sperling"), au_orcid = c("https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0003-1352-7410", NA, "https://orcid.org/0000-0002-6110-292X", "https://orcid.org/0000-0001-5541-7987", NA, NA, NA, "https://orcid.org/0000-0003-3923-0797", "https://orcid.org/0000-0001-9590-371X"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Stanford University Earth &amp; Planetary Sciences", 
+"Princeton University Department of Geosciences", "Stanford University", "Franklin and Marshall College", "School of Ocean and Earth Science, University of Southampton", "Stanford University", "Princeton University", "Stanford University, Earth &amp; Planetary Sciences", "Princeton University - Princeton, NJ", ""), institution_id = c("https://openalex.org/I1302918504", "https://openalex.org/I20089843", "https://openalex.org/I97018004", "https://openalex.org/I173146385", "https://openalex.org/I43439940", 
+"https://openalex.org/I97018004", "https://openalex.org/I20089843", "https://openalex.org/I1302918504", "https://openalex.org/I20089843", NA), institution_display_name = c("Planetary Science Institute", "Princeton University", "Stanford University", "Franklin &amp; Marshall College", "University of Southampton", "Stanford University", "Princeton University", "Planetary Science Institute", "Princeton University", NA), institution_ror = c("https://ror.org/05vvg9554", "https://ror.org/00hx57361", "https://ror.org/00f54p054", 
+"https://ror.org/04fp4ps48", "https://ror.org/01ryk1543", "https://ror.org/00f54p054", "https://ror.org/00hx57361", "https://ror.org/05vvg9554", "https://ror.org/00hx57361", NA), institution_country_code = c("US", "US", "US", "US", "GB", "US", "US", "US", "US", NA), institution_type = c("nonprofit", "education", "education", "education", "education", "education", "education", "nonprofit", "education", NA), institution_lineage = c("https://openalex.org/I1302918504", "https://openalex.org/I20089843", 
+"https://openalex.org/I97018004", "https://openalex.org/I173146385", "https://openalex.org/I43439940", "https://openalex.org/I97018004", "https://openalex.org/I20089843", "https://openalex.org/I1302918504", "https://openalex.org/I20089843", NA))</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Abstracts with programs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4220651000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Geological Society of America</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0016-7592</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-394731</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4389358395</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4389358395", doi = "https://doi.org/10.1130/abs/2023am-394731")</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-394731</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W2417114907", "https://openalex.org/W1986806897", "https://openalex.org/W237486355", "https://openalex.org/W2793376547", "https://openalex.org/W2004768125", "https://openalex.org/W2077615713", "https://openalex.org/W2189504797", "https://openalex.org/W3098247415", "https://openalex.org/W106824729", "https://openalex.org/W2509175981")</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>https://openalex.org/W4390013743</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>PREVALENCIA DE LOS TRASTORNOS MUSCULOESQUELÉTICOS ASOCIADOS CON EL TRABAJO DE CARGOS ADMINISTRATIVOS: UN ESTUDIO TRANSVERSAL.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5090062493", "https://openalex.org/A5043724609", "https://openalex.org/A5018453772"), au_display_name = c("Elizabeth Ávila Angulo", "José Luis Márquez", "José Antonio Franco Taboada"), au_orcid = c(NA, "https://orcid.org/0000-0001-9491-7773", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, 
 NA, NA), institution_type = c(NA, NA, NA), institution_lineage = c(NA, NA, NA))</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>El estudio tuvo como objetivo evaluar la prevalencia de los trastornos musculoesqueléticos asociados con el trabajo (TMEAT) de cargos administrativos en oficina nacional de un Ente Gestor de Seguridad Social de Corto Plazo en el Estado Plurinacional de Bolivia. La metodología corresponde a un estudio transversal de 64 funcionarios (30 hombres y 34 mujeres), la recopilación de la información se realizó mediante el Cuestionario Sociodemográfico laboral, el Cuestionario Nórdico de Kuorinka, el Método ROSA, y las Historias Clínicas. Los resultados obtenidos indican que el 59% de la población, presenta sobrepeso y obesidad, además de la ausencia de actividad física en el 61%, elementos que están asociados a los TMEAT, La prevalencia general fue de 68% presentando un riesgo alto, con predominancia del género femenino. Las áreas anatómicas comprometidas son: el cuello que ocupó el primer lugar con un 76.6%, seguida del área lumbar con una presencia del 71.9%, en áreas de muñeca/mano el 50.0% presentan molestas, los hombros con el 42.2% y por último el codo o antebrazo con 39.1%.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Revista investigación &amp; negocios</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://openalex.org/S4210213488</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>2521-2737</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://doi.org/10.38147/invneg.v16i28.230</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>https://ingcomercial.edu.bo/revistainvestigacionynegocios/index.php/revista/article/download/230/193</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>https://ingcomercial.edu.bo/revistainvestigacionynegocios/index.php/revista/article/download/230/193</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>es</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4390013743</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4390013743", doi = "https://doi.org/10.38147/invneg.v16i28.230")</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>https://doi.org/10.38147/invneg.v16i28.230</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2758277628", "https://openalex.org/W2778153218", "https://openalex.org/W2948807893", "https://openalex.org/W3183948672", "https://openalex.org/W3173606202", "https://openalex.org/W2935909890", "https://openalex.org/W3110381201", "https://openalex.org/W4387497383", "https://openalex.org/W2748952813", "https://openalex.org/W1531601525")</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
@@ -740,7 +740,7 @@
           <t>list(au_id = c("https://openalex.org/A5067114196", "https://openalex.org/A5059047868", "https://openalex.org/A5048327804", "https://openalex.org/A5093066936", "https://openalex.org/A5034314404", "https://openalex.org/A5019712384", "https://openalex.org/A5029729586", "https://openalex.org/A5077507829", "https://openalex.org/A5040082438", "https://openalex.org/A5085520614", "https://openalex.org/A5092826341", "https://openalex.org/A5086562271", "https://openalex.org/A5065128348", "https://openalex.org/A5064662733", 
 "https://openalex.org/A5093066935", "https://openalex.org/A5034091167", "https://openalex.org/A5025071074", "https://openalex.org/A5054950620", "https://openalex.org/A5004968551", "https://openalex.org/A5064902040", "https://openalex.org/A5057286743", "https://openalex.org/A5002664162", "https://openalex.org/A5025523923", "https://openalex.org/A5035834074", "https://openalex.org/A5021987405", "https://openalex.org/A5008982079", "https://openalex.org/A5013532979", "https://openalex.org/A5068403289", 
 "https://openalex.org/A5053264793"), au_display_name = c("Markus Scheidgen", "Lauri Himanen", "Alvin Noe Ladines", "David Sikter", "Mohammad Nakhaee", "Ádám Fekete", "Theodore L. Chang", "Amir Golparvar", "J.A. Marquez", "Sándor Brockhauser", "Sebastian Brückner", "Luca M. Ghiringhelli", "Felix Dietrich", "Daniel Lehmberg", "Thea Denell", "Andrea Albino", "Hampus Näsström", "Sherjeel Shabih", "Florian Dobener", "Markus Kühbach", "Rubel Mozumder", "Joseph F. Rudzinski", "Nathan Daelman", "José María Sánchez-Marín Pizarro", 
-"Martiň Kubáň", "Cuauhtemoc Salazar", "Pavel Ondračka", "Hans‐Joachim Bungartz", "Claudia Draxl"), au_orcid = c("https://orcid.org/0000-0002-8038-2277", "https://orcid.org/0000-0002-3130-8193", "https://orcid.org/0000-0003-0077-2097", "https://orcid.org/0000-0002-2102-7160", "https://orcid.org/0000-0003-4146-0129", "https://orcid.org/0000-0002-6263-897X", "https://orcid.org/0000-0002-4911-0230", "https://orcid.org/0000-0002-2412-6615", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-9700-4803", 
+"Martin Kubáň", "Cuauhtemoc Salazar", "Pavel Ondračka", "Hans‐Joachim Bungartz", "Claudia Draxl"), au_orcid = c("https://orcid.org/0000-0002-8038-2277", "https://orcid.org/0000-0002-3130-8193", "https://orcid.org/0000-0003-0077-2097", "https://orcid.org/0000-0002-2102-7160", "https://orcid.org/0000-0003-4146-0129", "https://orcid.org/0000-0002-6263-897X", "https://orcid.org/0000-0002-4911-0230", "https://orcid.org/0000-0002-2412-6615", "https://orcid.org/0000-0002-8173-2566", "https://orcid.org/0000-0002-9700-4803", 
 "https://orcid.org/0000-0002-5969-847X", "https://orcid.org/0000-0001-5099-3029", "https://orcid.org/0000-0002-2906-1769", "https://orcid.org/0000-0002-4012-5014", "https://orcid.org/0009-0000-7185-9363", "https://orcid.org/0000-0001-9280-7431", "https://orcid.org/0000-0002-3264-1692", "https://orcid.org/0009-0008-6635-4465", "https://orcid.org/0000-0003-1987-6224", "https://orcid.org/0000-0002-7117-5196", "https://orcid.org/0009-0007-5926-6646", "https://orcid.org/0000-0003-3403-640X", "https://orcid.org/0000-0002-7647-1816", 
 "https://orcid.org/0000-0002-6751-8192", "https://orcid.org/0000-0002-1619-2460", "https://orcid.org/0000-0002-9635-5062", "https://orcid.org/0000-0003-0729-629X", "https://orcid.org/0000-0002-0171-0712", "https://orcid.org/0000-0003-3523-6657"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", 
 "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", "", ""), institution_id = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_display_name = c(NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA, NA), institution_ror = c(NA, NA, NA, 

--- a/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
@@ -606,7 +606,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B.E. Szabados, Elisa Martínez, Francisco Márquez, D.E. Castellano Gauna, Alejo Rodríguez‐Vida, M.C. Garcias de Espana, Syed A. Hussain, Carlos Álvarez Fernández, Mark Linch, T. Bonfill Abella, Marine Gross Goupil, J. Kelly, Robert J. Jones, Simon J. Crabb, Luis Beltrán, Rachel Garonce-Hediger, Nikolas Rakebrandt, Rareș Georgescu, Charlotte Ackerman, T.B. Powles</t>
+          <t>B.E. Szabados, Elisa Martínez, Francisco Márquez, D.E. Castellano Gauna, Alejo Rodríguez‐Vida, M.C. Garcias de Espana, Syed A. Hussain, Carlos Álvarez Fernández, Mark Linch, T. Bonfill Abella, Marine Gross Goupil, J. Kelly, Robert J. Jones, Simon J. Crabb, Luis Beltrán, Rachel Garonce-Hediger, Nikolas Rakebrandt, Rareş Georgescu, Charlotte Ackerman, T.B. Powles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Jose Marquez_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Faculty of Electrical Engineering University of Ljubljana  Tržaška cesta 25 Ljubljana 1000 Slovenia; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Physik &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; University of Applied Sciences – HTW Berlin  Wilhelminenhofstr. 75a D‐12459 Berlin Germany; University of Applied Sciences – HTW Berlin  Wilhelminenhofstr. 75a D‐12459 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Helmholtz‐Zentrum Berlin für Materialien und Energie GmbH  Hahn‐Meitner‐Platz 1 D‐14109 Berlin Germany; Institut für Chemie &amp;amp; IRIS Adlershof Humboldt‐Universität zu Berlin  Zum Großen Windkanal 2 12489 Berlin Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323266868</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Ink Design Enabling Slot‐Die Coated Perovskite Solar Cells with &amp;gt;22% Power Conversion Efficiency, Micro‐Modules, and 1 Year of Outdoor Performance Evaluation</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Advanced Energy Materials</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/aenm.202203898</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/aenm.202203898</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387655061</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>NOMAD: A distributed web-based platform for managing materials science research data</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of open source software</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Open Journals</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.21105/joss.05388</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.21105/joss.05388</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,44 +621,44 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B.E. Szabados, Elisa Martínez, Francisco Márquez, D.E. Castellano Gauna, Alejo Rodríguez‐Vida, M.C. Garcias de Espana, Syed A. Hussain, Carlos Álvarez Fernández, Mark Linch, T. Bonfill Abella, Marine Gross Goupil, J. Kelly, Robert J. Jones, Simon J. Crabb, Luis Beltrán, Rachel Garonce-Hediger, Nikolas Rakebrandt, Rareş Georgescu, Charlotte Ackerman, T.B. Powles</t>
+          <t>B.E. Szabados, Elisa Martínez, Francisco Márquez, D.E. Castellano Gauna, Alejo Rodríguez‐Vida, M.C. Garcias de Espana, Syed A. Hussain, Carlos Álvarez Fernández, Mark Linch, T. Bonfill Abella, Marine Gross Goupil, J. Kelly, Robert J. Jones, Simon J. Crabb, Luis Beltrán, Rachel Garonce-Hediger, Nikolas Rakebrandt, Rareș Georgescu, Charlotte Ackerman, T.B. Powles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>; Oncology Department, Complejo Hospitalario Universitario de Albacete, Albacete, Spain; Medical Oncology, Hospital General Juan Ramon Jimenez, Huelva, Spain; Medical Oncology Department, Hospital Universitario 12 de Octubre, Madrid, Spain; Medical Oncology Department, Hospital del Mar IMIM Research Institute, Barcelona, Spain; Medical Oncology Dept, Hospital Universitario Son Espases, Palma de Mallorca, Spain; Medical Oncology, Sheffield Teaching Hospitals NHS Trust, Sheffield, UK; Medical Oncology, Hospital Universitario Central de Asturias, Oviedo, Spain; Oncology Department, UCL Cancer Institute - Paul O'Gorman Building, London, UK; Medical Oncology, Hospital de Sabadell Corporacis Parc Tauli, Sabadell, Spain; Medical Oncology, CHU Bordeaux - Hopital St. André, Bordeaux, France; Urology, UCLH - University College London Hospitals NHS Foundation Trust, London, UK; Institute of Cancer Sciences, MVLS - Medical, Veterinary and Life Sciences College - University of Glasgow, Glasgow, UK; Medical Oncology, Southampton General Hospital, Southampton, UK; Pathology, Barts Hospital NHS Trust, London, UK; Global Product Development/Medical Affairs Department, F. Hoffmann-La Roche AG, Basel, Switzerland; Clinical Research, Oncology Biomarker Development, F. Hoffmann-La Roche Ltd, Basel, Switzerland; Clinical Research, Barts ECMC, London, UK; Clinical Research, Barts ECMC, London, UK; Oncology Department, St. Bartholomew's Hospital - Barts Health NHS Trust, London, UK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387807212</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2363MO A phase II study investigating the safety and efficacy of neoadjuvant atezolizumab in non-urothelial, muscle invasive bladder cancer (ABACUS-2)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Annals of Oncology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annonc.2023.09.1012</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4327562966</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>630/113. RELEVANCIA DE LAS PRUEBAS COMPLEMENTARIAS ORIENTADAS A LA CLÍNICA DEL PACIENTE EN EL MANEJO INICIAL DEL SÍNCOPE</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>REC: CardioClinics</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s2605-1532(23)00137-1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,37 +800,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327562978</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>630/110. LA RECURRENCIA DEL SÍNCOPE COMO INDICADOR HACIA LA CARDIOGENICIDAD DEL SÍNCOPE</t>
+          <t>https://openalex.org/W4327563478</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>630/104. LA IMPORTANCIA DEL TRIAJE EN URGENCIAS EN LA ORIENTACIÓN INICIAL DE LA PÉRDIDA TRANSITORIA DEL CONOCIMIENTO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>REC: CardioClinics</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,42 +882,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ángel Martínez Lara, Francisco Márquez, Alberto Luis Avilés Toscano</t>
+          <t>Ke Xu, Jinzhao Li, Zih-Wei Peng, Eike Köhnen, Hannes Hempel, Fatima Akhundova, J.A. Marquez, Philipp Tockhorn, Oleksandra Shargaieva, Amran Al-Ashouri, Jiahuan Zhang, Janardan Dagar, Bernd Stannowski, Thomas Unold, Daniel Abou‐Ras, Eva Unger, Lars Korte, Steve Albrecht, Florian Ruske</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4327563478</t>
+          <t>Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz-Zentrum Berlin, Competence Centre Photovoltaics (PVcomB); Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz-Zentrum Berlin, Competence Centre Photovoltaics (PVcomB); Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie; Helmholtz Zentrum Berlin für Materialien und Energie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>630/104. LA IMPORTANCIA DEL TRIAJE EN URGENCIAS EN LA ORIENTACIÓN INICIAL DE LA PÉRDIDA TRANSITORIA DEL CONOCIMIENTO</t>
+          <t>https://openalex.org/W4361015169</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>Modelling tools to integrate solar photovoltaics into energy systems</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>REC: CardioClinics</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s2605-1532(23)00129-2</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,27 +969,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ke Xu, Jinzhao Li, Zih-Wei Peng, Eike Köhnen, Hannes Hempel, Fatima Akhundova, J.A. Marquez, Philipp Tockhorn, Oleksandra Shargaieva, Amran Al-Ashouri, Jiahuan Zhang, Janardan Dagar, Bernd Stannowski, Thomas Unold, Daniel Abou‐Ras, Eva Unger, Lars Korte, Steve Albrecht, Florian Ruske</t>
+          <t>Hongbin Yu, J.A. Marquez, Chih-Cheng Hsieh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361015169</t>
+          <t>National Tsing Hua University, Hsinchu, Taiwan; National Tsing Hua University, Hsinchu, Taiwan; National Tsing Hua University, Hsinchu, Taiwan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Modelling tools to integrate solar photovoltaics into energy systems</t>
+          <t>https://openalex.org/W4385192455</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>A −20°C~+107°C 52mk-NETD Reference-cell-free 15-bits ROIC for 80×60 Micro-bolometer Thermal Imager</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -964,12 +999,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.29363/nanoge.matsus.2023.230</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>José Luis Márquez</t>
+          <t>Markus Scheidgen, Sebastian Brückner, Sándor Brockhauser, Luca M. Ghiringhelli, Felix Dietrich, Ahmed E. Mansour, J.A. Marquez, M. Albrecht, Heiko B. Weber, Silvana Botti, Martin Aeschlimann, Claudia Draxl</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382055766</t>
+          <t>Humboldt-Universität zu Berlin; Humboldt-Universität zu Berlin; Humboldt-Universität zu Berlin; Humboldt-Universität zu Berlin; Technical University of Munich; Humboldt-Universität zu Berlin; Humboldt-Universität zu Berlin; Leibniz Institute for Crystal Growth; University of Erlangen-Nuremberg; Ruhr University Bochum; Rheinland-Pfälzische Technische Universität Kaiserslautern-Landau; Humboldt-Universität zu Berlin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>¿Somos predeciblemente racionales o predeciblemente irracionales? Un estudio sobre el “efecto anclaje”</t>
+          <t>https://openalex.org/W4386544203</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>FAIR Research Data With NOMAD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Desafíos Economía y Empresa</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Proceedings of the Conference on Research Data Infrastructure</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.52825/cordi.v1i.376</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>es</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.52825/cordi.v1i.376</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J.A. Marquez, Е. А. Новиков, Sergei Rigin, Marina S. Fonarı, Raúl Castañeda, T. A. Kornilova, Tatiana V. Timofeeva</t>
+          <t>Regina Guthold, Holly Newby, Sarah C. Keogh, Rima Afifi, Karen Austrian, Sarah Baird, Robert W. Blum, Donald Bundy, Julianna Deardorff, Danielle Engel, Jonathan D. Klein, Sophie M. Kostelecky, Constance Mackworth-Young, J.A. Marquez, Saoirse Nic Gabhainn, Jennifer Requejo, D. A. Ross, Elizabeth Saewyc, Anshu Mohan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382201946</t>
+          <t>Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland; Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland; Maternal, Newborn, Child and Adolescent Health and Ageing Department, World Health Organization, Geneva, Switzerland; College of Public Health, University of Iowa, Iowa City, Iowa; GIRL Center, Population Council, Nairobi, Kenya; Department of Global Health, George Washington University, Washington, District of Columbia; Department of Population, Family and Reproductive Health, Bloomberg School of Public Health, Johns Hopkins University, Baltimore, Maryland; Research Consortium for School Health and Nutrition, London School of Hygiene and Tropical Medicine, London, United Kingdom; School of Public Health, University of California, Berkeley, California; Technical Division, United Nations Population Fund, New York, New York; Department of Pediatrics, University of Illinois at Chicago, Chicago, Illinois; Partnership for Maternal, Newborn and Child Health, Geneva, Switzerland; Department of Global Health and Development, London School of Hygiene and Tropical Medicine, London, United Kingdom; The Health Research Unit Zimbabwe, The Biomedical Research and Training Institute, Harare, Zimbabwe; Manchester Institute of Education, University of Manchester, Manchester, United Kingdom; Wellbeing Research Oxford, Harris Manchester College, University of Oxford, Oxford, United Kingdom; School of Health Sciences, University of Galway, Galway, Ireland; Department of International Health, Johns Hopkins Bloomberg School of Public Health, Balitmore, Maryland; Global Financing Facility, World Bank Group, Washington, D.C.; Consultant to the Child Health Initiative of the FIA Foundation, Bad Herrenalb, Germany; School of Nursing and Stigma and Resilience Among Vulnerable Youth Centre (SARAVYC), University of British Columbia, Vancouver, British Columbia, Canada; Partnership for Maternal, Newborn and Child Health, Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Exploiting Supramolecular Synthons in Cocrystals of Two Racetams with 4-Hydroxybenzoic Acid and 4-Hydroxybenzamide Coformers</t>
+          <t>https://openalex.org/W4387458447</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>Developing a Global Approach for Measurement of Adolescent Well-Being</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>Journal of Adolescent Health</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/chemistry5020074</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>cc-by-nc-nd</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/chemistry5020074</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37815774</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hongbin Yu, J.A. Marquez, Chih-Cheng Hsieh</t>
+          <t>José Luis Márquez, Samantha Simon, Jeffrey I. Zwicker, Brian Hollenbeck, Robert Flaumenhaft, Rushad Patell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385192455</t>
+          <t>1The Warren Alpert Medical School of Brown University, Providence, RI; 2New England Baptist Hospital, Boston; 3Memorial Sloan Kettering Cancer Center, New York, NY; 2New England Baptist Hospital, Boston; 4Division of Hemostasis and Thrombosis, Beth Israel Deaconess Medical Center, Boston, MA; 5Division of Hematology and Hematologic Malignancies, Beth Israel Deaconess Medical Center, Boston, MA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A −20°C~+107°C 52mk-NETD Reference-cell-free 15-bits ROIC for 80×60 Micro-bolometer Thermal Imager</t>
+          <t>https://openalex.org/W4389232301</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-06-11</t>
+          <t>Assessing the Risk of Venous Thromboembolism and Bleeding Among Patients with Myeloproliferative Neoplasms Undergoing Total Knee and Hip Arthroplasty</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1182/blood-2023-181879</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.23919/vlsitechnologyandcir57934.2023.10185249</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-181879</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Markus Scheidgen, Sebastian Brückner, Sándor Brockhauser, Luca M. Ghiringhelli, Felix Dietrich, Ahmed E. Mansour, J.A. Marquez, M. Albrecht, Heiko B. Weber, Silvana Botti, Martin Aeschlimann, Claudia Draxl</t>
+          <t>J.A. Marquez, Justin L. Penn, Kyra N. Anderson, Murray I. Duncan, Richard Stockey, Christopher P. Noll, Thomas H. Boag, Kemi Ashing-Giwa, Curtis Deutsch, Erik A. Sperling</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386544203</t>
+          <t xml:space="preserve">Stanford University Earth &amp; Planetary Sciences; Princeton University Department of Geosciences; Stanford University; Franklin and Marshall College; School of Ocean and Earth Science, University of Southampton; Stanford University; Princeton University; Stanford University, Earth &amp; Planetary Sciences; Princeton University - Princeton, NJ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FAIR Research Data With NOMAD</t>
+          <t>https://openalex.org/W4389358395</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>COMPARING THE HYPOXIA TOLERANCE AND TEMPERATURE SENSITIVITIES OF PALEOZOIC AND MODERN MARINE FAUNA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Proceedings of the Conference on Research Data Infrastructure</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Abstracts with programs</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.52825/cordi.v1i.376</t>
+          <t>Geological Society of America</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1130/abs/2023am-394731</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.52825/cordi.v1i.376</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-394731</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Regina Guthold, Holly Newby, Sarah C. Keogh, Rima Afifi, Karen Austrian, Sarah Baird, Robert W. Blum, Donald Bundy, Julianna Deardorff, Danielle Engel, Jonathan D. Klein, Sophie M. Kostelecky, Constance Mackworth-Young, J.A. Marquez, Saoirse Nic Gabhainn, Jennifer Requejo, D. A. Ross, Elizabeth Saewyc, Anshu Mohan</t>
+          <t>Elizabeth Ávila Angulo, José Luis Márquez, José Antonio Franco Taboada</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387458447</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Developing a Global Approach for Measurement of Adolescent Well-Being</t>
+          <t>https://openalex.org/W4390013743</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>PREVALENCIA DE LOS TRASTORNOS MUSCULOESQUELÉTICOS ASOCIADOS CON EL TRABAJO DE CARGOS ADMINISTRATIVOS: UN ESTUDIO TRANSVERSAL.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Journal of Adolescent Health</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Revista investigación &amp; negocios</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.38147/invneg.v16i28.230</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37815774</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jadohealth.2023.08.029</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.38147/invneg.v16i28.230</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>José Luis Márquez, Samantha Simon, Jeffrey I. Zwicker, Brian Hollenbeck, Robert Flaumenhaft, Rushad Patell</t>
+          <t>Ángel Martínez Lara, Francisco Márquez, Alberto Luis Avilés Toscano</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389232301</t>
+          <t xml:space="preserve">; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Assessing the Risk of Venous Thromboembolism and Bleeding Among Patients with Myeloproliferative Neoplasms Undergoing Total Knee and Hip Arthroplasty</t>
+          <t>https://openalex.org/W4327562978</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>630/110. LA RECURRENCIA DEL SÍNCOPE COMO INDICADOR HACIA LA CARDIOGENICIDAD DEL SÍNCOPE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>REC: CardioClinics</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-181879</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-181879</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s2605-1532(23)00134-6</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,80 +1578,85 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kemi Ashing-Giwa, J.A. Marquez, Kyra N. Anderson, Jonathan L. Payne, Erik A. Sperling</t>
+          <t>José Luis Márquez</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389327858</t>
+          <t>Universidad Mayor de San Andrés, Facultad de Ciencias Económicas y Financieras Carrera Administración de Empresas La Paz, Bolivia</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>THE GOOD, THE BAD, AND THE HYPOXIC: INVESTIGATING THE RESPONSE OF INARTICULATE BRACHIOPODS TO LOW-OXYGEN CONDITIONS</t>
+          <t>https://openalex.org/W4382055766</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>¿Somos predeciblemente racionales o predeciblemente irracionales? Un estudio sobre el “efecto anclaje”</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Abstracts with programs</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Geological Society of America</t>
+          <t>Desafíos Economía y Empresa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/abs/2023am-390859</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>es</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1130/abs/2023am-390859</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26439/ddee2023.n003.6052</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,80 +1665,85 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>J.A. Marquez, Justin L. Penn, Kyra N. Anderson, Murray I. Duncan, Richard Stockey, Christopher P. Noll, Thomas H. Boag, Kemi Ashing-Giwa, Curtis Deutsch, Erik A. Sperling</t>
+          <t>J.A. Marquez, Е. А. Новиков, Sergei Rigin, Marina S. Fonarı, Raúl Castañeda, T. A. Kornilova, Tatiana V. Timofeeva</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389358395</t>
+          <t>Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Materials Science and Engineering, North Carolina State University, Raleigh, NC 27606, USA; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Institute of Applied Physics, Moldova State University, Academiei Str. 5, MD2028 Chisinau, Moldova; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA; Department of Chemistry, New Mexico Highlands University, Las Vegas, NM 87701, USA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COMPARING THE HYPOXIA TOLERANCE AND TEMPERATURE SENSITIVITIES OF PALEOZOIC AND MODERN MARINE FAUNA</t>
+          <t>https://openalex.org/W4382201946</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Exploiting Supramolecular Synthons in Cocrystals of Two Racetams with 4-Hydroxybenzoic Acid and 4-Hydroxybenzamide Coformers</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Abstracts with programs</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Geological Society of America</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1130/abs/2023am-394731</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3390/chemistry5020074</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1130/abs/2023am-394731</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/chemistry5020074</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1672,80 +1752,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elizabeth Ávila Angulo, José Luis Márquez, José Antonio Franco Taboada</t>
+          <t>Kemi Ashing-Giwa, J.A. Marquez, Kyra N. Anderson, Jonathan L. Payne, Erik A. Sperling</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390013743</t>
+          <t xml:space="preserve">; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PREVALENCIA DE LOS TRASTORNOS MUSCULOESQUELÉTICOS ASOCIADOS CON EL TRABAJO DE CARGOS ADMINISTRATIVOS: UN ESTUDIO TRANSVERSAL.</t>
+          <t>https://openalex.org/W4389327858</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>THE GOOD, THE BAD, AND THE HYPOXIC: INVESTIGATING THE RESPONSE OF INARTICULATE BRACHIOPODS TO LOW-OXYGEN CONDITIONS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Revista investigación &amp; negocios</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Abstracts with programs</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.38147/invneg.v16i28.230</t>
+          <t>Geological Society of America</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1130/abs/2023am-390859</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.38147/invneg.v16i28.230</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/abs/2023am-390859</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
